--- a/biology/Botanique/Anjou_fines_bulles/Anjou_fines_bulles.xlsx
+++ b/biology/Botanique/Anjou_fines_bulles/Anjou_fines_bulles.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 L'Anjou fines Bulles est la nouvelle dénomination d'un vin effervescent du vignoble de la vallée de la Loire  Anjou mousseux. L'appellation est une AOP avec un élevage en bouteille selon la méthode traditionnelle.
@@ -509,12 +521,19 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Histoire</t>
+          <t>Vignoble</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Étymologie</t>
+          <t>Présentation</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce vignoble comprend 60 hectares en vin effervescent. Il est implanté sur 128 communes du Maine-et-Loire, 14 communes des Deux-Sèvres et 9 communes de la Vienne.
+</t>
         </is>
       </c>
     </row>
@@ -539,14 +558,19 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Situation géographique</t>
+          <t>Vignoble</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Orographie
-Géologie
-Climatologie</t>
+          <t>Encépagement</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chenin blanc B (80 %), sauvignon B et chardonnay B.
+</t>
         </is>
       </c>
     </row>
@@ -571,48 +595,12 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Vignoble</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Présentation
-Ce vignoble comprend 60 hectares en vin effervescent. Il est implanté sur 128 communes du Maine-et-Loire, 14 communes des Deux-Sèvres et 9 communes de la Vienne.
-Encépagement
-Chenin blanc B (80 %), sauvignon B et chardonnay B.
-Méthodes culturales
-Terroir et vins
-Structure des exploitations
-Type de vins et gastronomie
-Commercialisation</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Anjou_fines_bulles</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Anjou_fines_bulles</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
           <t>Les principaux producteurs de l'appellation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr"/>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
